--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/presentations/Variables FC higher than1.5 p0.05 and enrichment.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/presentations/Variables FC higher than1.5 p0.05 and enrichment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6082AB24-175A-43B7-A134-1B6F4472AEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D49DB-82C4-466C-AED8-CB87231EE131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$2:$L$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="2000">
   <si>
     <t>geneID</t>
   </si>
@@ -6025,6 +6025,30 @@
   </si>
   <si>
     <t>24 hpi</t>
+  </si>
+  <si>
+    <t>Shortnames</t>
+  </si>
+  <si>
+    <t>Solyc01g080800.3.2</t>
+  </si>
+  <si>
+    <t>Solyc01g080800.3.3</t>
+  </si>
+  <si>
+    <t>Solyc01g080800.3.4</t>
+  </si>
+  <si>
+    <t>BSP</t>
+  </si>
+  <si>
+    <t>OM9-2-like</t>
+  </si>
+  <si>
+    <t>ET-TF</t>
+  </si>
+  <si>
+    <t>Unk</t>
   </si>
 </sst>
 </file>
@@ -6084,7 +6108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6232,6 +6256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6447,14 +6477,14 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13927,15 +13957,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>1707</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14507,15 +14537,15 @@
       <c r="I31" s="42"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="58" t="s">
         <v>1755</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="27"/>
@@ -16985,15 +17015,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>1707</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -18144,15 +18174,15 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="58" t="s">
         <v>1755</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -19360,10 +19390,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E7225-A450-4307-8B98-08D51B835C56}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L950"/>
   <sheetViews>
-    <sheetView topLeftCell="A867" workbookViewId="0">
-      <selection activeCell="A894" sqref="A892:A894"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19557,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>162</v>
       </c>
@@ -19592,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>164</v>
       </c>
@@ -19627,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
@@ -19662,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>168</v>
       </c>
@@ -19697,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>170</v>
       </c>
@@ -19732,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>172</v>
       </c>
@@ -19767,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>174</v>
       </c>
@@ -19802,7 +19833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>176</v>
       </c>
@@ -19837,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>178</v>
       </c>
@@ -19872,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
@@ -19907,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>182</v>
       </c>
@@ -19942,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
@@ -19977,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>186</v>
       </c>
@@ -20012,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>188</v>
       </c>
@@ -20047,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>190</v>
       </c>
@@ -20082,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -20117,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
@@ -20152,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>196</v>
       </c>
@@ -20187,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>198</v>
       </c>
@@ -20222,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>200</v>
       </c>
@@ -20257,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>202</v>
       </c>
@@ -20292,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
@@ -20327,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>206</v>
       </c>
@@ -20362,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>208</v>
       </c>
@@ -20397,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>210</v>
       </c>
@@ -20432,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>212</v>
       </c>
@@ -20467,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>214</v>
       </c>
@@ -20502,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>216</v>
       </c>
@@ -20537,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>218</v>
       </c>
@@ -20572,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>220</v>
       </c>
@@ -20607,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>222</v>
       </c>
@@ -20642,7 +20673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>224</v>
       </c>
@@ -20677,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>226</v>
       </c>
@@ -20712,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>228</v>
       </c>
@@ -20747,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>230</v>
       </c>
@@ -20782,7 +20813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>232</v>
       </c>
@@ -20817,7 +20848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>234</v>
       </c>
@@ -20852,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>236</v>
       </c>
@@ -20887,7 +20918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>238</v>
       </c>
@@ -20922,7 +20953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>240</v>
       </c>
@@ -20957,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>242</v>
       </c>
@@ -20992,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>244</v>
       </c>
@@ -21027,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>246</v>
       </c>
@@ -21062,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>248</v>
       </c>
@@ -21097,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>250</v>
       </c>
@@ -21132,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>252</v>
       </c>
@@ -21167,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>254</v>
       </c>
@@ -21202,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>256</v>
       </c>
@@ -21237,7 +21268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>258</v>
       </c>
@@ -21272,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>260</v>
       </c>
@@ -21307,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>262</v>
       </c>
@@ -21342,7 +21373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>264</v>
       </c>
@@ -21377,7 +21408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>266</v>
       </c>
@@ -21412,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>268</v>
       </c>
@@ -21447,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>270</v>
       </c>
@@ -21482,7 +21513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>272</v>
       </c>
@@ -21517,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>273</v>
       </c>
@@ -21552,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>275</v>
       </c>
@@ -21587,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>277</v>
       </c>
@@ -21622,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>279</v>
       </c>
@@ -21657,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>281</v>
       </c>
@@ -21692,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>283</v>
       </c>
@@ -21727,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>285</v>
       </c>
@@ -21762,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>287</v>
       </c>
@@ -21797,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>289</v>
       </c>
@@ -21832,7 +21863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>291</v>
       </c>
@@ -21867,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>293</v>
       </c>
@@ -21902,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>295</v>
       </c>
@@ -21937,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>297</v>
       </c>
@@ -21972,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>299</v>
       </c>
@@ -22007,7 +22038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>301</v>
       </c>
@@ -22042,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>303</v>
       </c>
@@ -22077,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>305</v>
       </c>
@@ -22112,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>307</v>
       </c>
@@ -22147,7 +22178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>309</v>
       </c>
@@ -22182,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>311</v>
       </c>
@@ -22217,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>313</v>
       </c>
@@ -22252,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>315</v>
       </c>
@@ -22287,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>316</v>
       </c>
@@ -22322,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>318</v>
       </c>
@@ -22357,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>320</v>
       </c>
@@ -22392,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>322</v>
       </c>
@@ -22427,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>324</v>
       </c>
@@ -22462,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>326</v>
       </c>
@@ -22497,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>327</v>
       </c>
@@ -22532,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>329</v>
       </c>
@@ -22567,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>331</v>
       </c>
@@ -22602,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>333</v>
       </c>
@@ -22637,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>335</v>
       </c>
@@ -22672,7 +22703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>337</v>
       </c>
@@ -22707,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>339</v>
       </c>
@@ -22742,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>341</v>
       </c>
@@ -22777,7 +22808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>343</v>
       </c>
@@ -22812,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>345</v>
       </c>
@@ -22847,7 +22878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>347</v>
       </c>
@@ -22882,7 +22913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>349</v>
       </c>
@@ -22917,7 +22948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>351</v>
       </c>
@@ -22952,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>353</v>
       </c>
@@ -22987,7 +23018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>355</v>
       </c>
@@ -23022,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>357</v>
       </c>
@@ -23057,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>359</v>
       </c>
@@ -23092,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>361</v>
       </c>
@@ -23127,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>363</v>
       </c>
@@ -23162,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>365</v>
       </c>
@@ -23197,7 +23228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
@@ -23232,7 +23263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>369</v>
       </c>
@@ -23267,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>371</v>
       </c>
@@ -23302,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>373</v>
       </c>
@@ -23337,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>375</v>
       </c>
@@ -23372,7 +23403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>377</v>
       </c>
@@ -23407,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>379</v>
       </c>
@@ -23442,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>381</v>
       </c>
@@ -23477,7 +23508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>383</v>
       </c>
@@ -23512,7 +23543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>385</v>
       </c>
@@ -23547,7 +23578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>387</v>
       </c>
@@ -23582,7 +23613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>389</v>
       </c>
@@ -23617,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>391</v>
       </c>
@@ -23652,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>393</v>
       </c>
@@ -23687,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>395</v>
       </c>
@@ -23722,7 +23753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>396</v>
       </c>
@@ -23757,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>398</v>
       </c>
@@ -23792,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>400</v>
       </c>
@@ -23827,7 +23858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>402</v>
       </c>
@@ -23862,7 +23893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>404</v>
       </c>
@@ -23897,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>406</v>
       </c>
@@ -23932,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>408</v>
       </c>
@@ -23967,7 +23998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>410</v>
       </c>
@@ -24002,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>412</v>
       </c>
@@ -24037,7 +24068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>414</v>
       </c>
@@ -24072,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>416</v>
       </c>
@@ -24107,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>418</v>
       </c>
@@ -24142,7 +24173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>420</v>
       </c>
@@ -24177,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>421</v>
       </c>
@@ -24212,7 +24243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>423</v>
       </c>
@@ -24247,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>425</v>
       </c>
@@ -24282,7 +24313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>427</v>
       </c>
@@ -24317,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>429</v>
       </c>
@@ -24352,7 +24383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>431</v>
       </c>
@@ -24387,7 +24418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>433</v>
       </c>
@@ -24422,7 +24453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>435</v>
       </c>
@@ -24457,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>437</v>
       </c>
@@ -24492,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>439</v>
       </c>
@@ -24527,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>441</v>
       </c>
@@ -24562,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>443</v>
       </c>
@@ -24597,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>445</v>
       </c>
@@ -24632,7 +24663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>447</v>
       </c>
@@ -24667,7 +24698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>449</v>
       </c>
@@ -24702,7 +24733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>451</v>
       </c>
@@ -24737,7 +24768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>453</v>
       </c>
@@ -24772,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>455</v>
       </c>
@@ -24807,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>457</v>
       </c>
@@ -24842,7 +24873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>458</v>
       </c>
@@ -24877,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>460</v>
       </c>
@@ -24912,7 +24943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>461</v>
       </c>
@@ -24947,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>463</v>
       </c>
@@ -24982,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>464</v>
       </c>
@@ -25017,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>466</v>
       </c>
@@ -25052,7 +25083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>468</v>
       </c>
@@ -25087,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>470</v>
       </c>
@@ -25122,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>472</v>
       </c>
@@ -25157,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>474</v>
       </c>
@@ -25192,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>476</v>
       </c>
@@ -25227,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>478</v>
       </c>
@@ -25262,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>480</v>
       </c>
@@ -25297,7 +25328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>482</v>
       </c>
@@ -25332,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>484</v>
       </c>
@@ -25367,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>486</v>
       </c>
@@ -25402,7 +25433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>488</v>
       </c>
@@ -25437,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>490</v>
       </c>
@@ -25472,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>492</v>
       </c>
@@ -25507,7 +25538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>494</v>
       </c>
@@ -25542,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>496</v>
       </c>
@@ -25577,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>497</v>
       </c>
@@ -25612,7 +25643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>499</v>
       </c>
@@ -25647,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>501</v>
       </c>
@@ -25682,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>503</v>
       </c>
@@ -25717,7 +25748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>505</v>
       </c>
@@ -25752,7 +25783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>507</v>
       </c>
@@ -25787,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>509</v>
       </c>
@@ -25822,7 +25853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>511</v>
       </c>
@@ -25857,7 +25888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>513</v>
       </c>
@@ -25892,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>515</v>
       </c>
@@ -25927,7 +25958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>516</v>
       </c>
@@ -25962,7 +25993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>518</v>
       </c>
@@ -25997,7 +26028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>520</v>
       </c>
@@ -26032,7 +26063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>522</v>
       </c>
@@ -26067,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>524</v>
       </c>
@@ -26102,7 +26133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>526</v>
       </c>
@@ -26137,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>528</v>
       </c>
@@ -26172,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>530</v>
       </c>
@@ -26207,7 +26238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>532</v>
       </c>
@@ -26242,7 +26273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>534</v>
       </c>
@@ -26277,7 +26308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>536</v>
       </c>
@@ -26312,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>538</v>
       </c>
@@ -26347,7 +26378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>540</v>
       </c>
@@ -26382,7 +26413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>542</v>
       </c>
@@ -26417,7 +26448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>544</v>
       </c>
@@ -26452,7 +26483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>546</v>
       </c>
@@ -26487,7 +26518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>547</v>
       </c>
@@ -26522,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>549</v>
       </c>
@@ -26557,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>551</v>
       </c>
@@ -26592,7 +26623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>553</v>
       </c>
@@ -26627,7 +26658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>555</v>
       </c>
@@ -26662,7 +26693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>557</v>
       </c>
@@ -26697,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>559</v>
       </c>
@@ -26732,7 +26763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>561</v>
       </c>
@@ -26767,7 +26798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>563</v>
       </c>
@@ -26802,7 +26833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>565</v>
       </c>
@@ -26837,7 +26868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>567</v>
       </c>
@@ -26872,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>569</v>
       </c>
@@ -26907,7 +26938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>571</v>
       </c>
@@ -26942,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>573</v>
       </c>
@@ -26977,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>575</v>
       </c>
@@ -27012,7 +27043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>577</v>
       </c>
@@ -27047,7 +27078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>579</v>
       </c>
@@ -27082,7 +27113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>581</v>
       </c>
@@ -27117,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>583</v>
       </c>
@@ -27152,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>584</v>
       </c>
@@ -27187,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>586</v>
       </c>
@@ -27222,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>588</v>
       </c>
@@ -27257,7 +27288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>13</v>
       </c>
@@ -27292,7 +27323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>589</v>
       </c>
@@ -27327,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>590</v>
       </c>
@@ -27362,7 +27393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>591</v>
       </c>
@@ -27397,7 +27428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>593</v>
       </c>
@@ -27432,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>595</v>
       </c>
@@ -27467,7 +27498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>597</v>
       </c>
@@ -27502,7 +27533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>599</v>
       </c>
@@ -27537,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>601</v>
       </c>
@@ -27572,7 +27603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>603</v>
       </c>
@@ -27607,7 +27638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>605</v>
       </c>
@@ -27642,7 +27673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>607</v>
       </c>
@@ -27677,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>97</v>
       </c>
@@ -27712,7 +27743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>609</v>
       </c>
@@ -27747,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>611</v>
       </c>
@@ -27782,7 +27813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>613</v>
       </c>
@@ -27817,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>615</v>
       </c>
@@ -27852,7 +27883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>617</v>
       </c>
@@ -27887,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>619</v>
       </c>
@@ -27922,7 +27953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>621</v>
       </c>
@@ -27957,7 +27988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>623</v>
       </c>
@@ -27992,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>625</v>
       </c>
@@ -28027,7 +28058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>627</v>
       </c>
@@ -28062,7 +28093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>629</v>
       </c>
@@ -28097,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>631</v>
       </c>
@@ -28132,7 +28163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>633</v>
       </c>
@@ -28167,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>635</v>
       </c>
@@ -28202,7 +28233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>637</v>
       </c>
@@ -28237,7 +28268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>639</v>
       </c>
@@ -28272,7 +28303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>641</v>
       </c>
@@ -28307,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>643</v>
       </c>
@@ -28342,7 +28373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>645</v>
       </c>
@@ -28377,7 +28408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>646</v>
       </c>
@@ -28412,7 +28443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>648</v>
       </c>
@@ -28447,7 +28478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>650</v>
       </c>
@@ -28482,7 +28513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>652</v>
       </c>
@@ -28517,7 +28548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>654</v>
       </c>
@@ -28552,7 +28583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>656</v>
       </c>
@@ -28587,7 +28618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>658</v>
       </c>
@@ -28622,7 +28653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>660</v>
       </c>
@@ -28657,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>661</v>
       </c>
@@ -28692,7 +28723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>662</v>
       </c>
@@ -28727,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>664</v>
       </c>
@@ -28762,7 +28793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>666</v>
       </c>
@@ -28797,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>668</v>
       </c>
@@ -28832,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>670</v>
       </c>
@@ -28867,7 +28898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>672</v>
       </c>
@@ -28902,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>674</v>
       </c>
@@ -28937,7 +28968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>676</v>
       </c>
@@ -28972,7 +29003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>678</v>
       </c>
@@ -29007,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>680</v>
       </c>
@@ -29042,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>682</v>
       </c>
@@ -29077,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>684</v>
       </c>
@@ -29112,7 +29143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>686</v>
       </c>
@@ -29147,7 +29178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>688</v>
       </c>
@@ -29182,7 +29213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>690</v>
       </c>
@@ -29217,7 +29248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>692</v>
       </c>
@@ -29252,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>694</v>
       </c>
@@ -29287,7 +29318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>696</v>
       </c>
@@ -29322,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>698</v>
       </c>
@@ -29357,7 +29388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>700</v>
       </c>
@@ -29392,7 +29423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>702</v>
       </c>
@@ -29427,7 +29458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>704</v>
       </c>
@@ -29462,7 +29493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>706</v>
       </c>
@@ -29497,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>708</v>
       </c>
@@ -29532,7 +29563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>710</v>
       </c>
@@ -29567,7 +29598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>712</v>
       </c>
@@ -29602,7 +29633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>714</v>
       </c>
@@ -29637,7 +29668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>716</v>
       </c>
@@ -29672,7 +29703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>718</v>
       </c>
@@ -29707,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>720</v>
       </c>
@@ -29742,7 +29773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>722</v>
       </c>
@@ -29777,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>724</v>
       </c>
@@ -29812,7 +29843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>726</v>
       </c>
@@ -29847,7 +29878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>728</v>
       </c>
@@ -29882,7 +29913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>730</v>
       </c>
@@ -29917,7 +29948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>731</v>
       </c>
@@ -29952,7 +29983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>733</v>
       </c>
@@ -29987,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>735</v>
       </c>
@@ -30022,7 +30053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>737</v>
       </c>
@@ -30057,7 +30088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>739</v>
       </c>
@@ -30092,7 +30123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>741</v>
       </c>
@@ -30127,7 +30158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>742</v>
       </c>
@@ -30162,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>744</v>
       </c>
@@ -30197,7 +30228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>745</v>
       </c>
@@ -30232,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>747</v>
       </c>
@@ -30267,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>749</v>
       </c>
@@ -30302,7 +30333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>751</v>
       </c>
@@ -30337,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>753</v>
       </c>
@@ -30372,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>755</v>
       </c>
@@ -30407,7 +30438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>757</v>
       </c>
@@ -30442,7 +30473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>759</v>
       </c>
@@ -30477,7 +30508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>761</v>
       </c>
@@ -30512,7 +30543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>763</v>
       </c>
@@ -30547,7 +30578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>765</v>
       </c>
@@ -30582,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>767</v>
       </c>
@@ -30617,7 +30648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>162</v>
       </c>
@@ -30652,7 +30683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>214</v>
       </c>
@@ -30687,7 +30718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>222</v>
       </c>
@@ -30722,7 +30753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>228</v>
       </c>
@@ -30757,7 +30788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>236</v>
       </c>
@@ -30792,7 +30823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>256</v>
       </c>
@@ -30827,7 +30858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>277</v>
       </c>
@@ -30862,7 +30893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>316</v>
       </c>
@@ -30897,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>322</v>
       </c>
@@ -30932,7 +30963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>341</v>
       </c>
@@ -30967,7 +30998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>343</v>
       </c>
@@ -31002,7 +31033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>357</v>
       </c>
@@ -31037,7 +31068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>359</v>
       </c>
@@ -31072,7 +31103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>377</v>
       </c>
@@ -31107,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>429</v>
       </c>
@@ -31142,7 +31173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>455</v>
       </c>
@@ -31177,7 +31208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>466</v>
       </c>
@@ -31212,7 +31243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>513</v>
       </c>
@@ -31247,7 +31278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>520</v>
       </c>
@@ -31282,7 +31313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>526</v>
       </c>
@@ -31317,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>528</v>
       </c>
@@ -31352,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>540</v>
       </c>
@@ -31387,7 +31418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>567</v>
       </c>
@@ -31422,7 +31453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>769</v>
       </c>
@@ -31457,7 +31488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>588</v>
       </c>
@@ -31492,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>771</v>
       </c>
@@ -31527,7 +31558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>609</v>
       </c>
@@ -31562,7 +31593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>613</v>
       </c>
@@ -31597,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>615</v>
       </c>
@@ -31632,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>623</v>
       </c>
@@ -31667,7 +31698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>633</v>
       </c>
@@ -31702,7 +31733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>637</v>
       </c>
@@ -31737,7 +31768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>645</v>
       </c>
@@ -31772,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>648</v>
       </c>
@@ -31807,7 +31838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>660</v>
       </c>
@@ -31842,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>696</v>
       </c>
@@ -31877,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>700</v>
       </c>
@@ -31912,7 +31943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>714</v>
       </c>
@@ -31947,7 +31978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>718</v>
       </c>
@@ -31982,7 +32013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>720</v>
       </c>
@@ -32017,7 +32048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>728</v>
       </c>
@@ -32052,7 +32083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>744</v>
       </c>
@@ -32087,7 +32118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>773</v>
       </c>
@@ -54206,7 +54237,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L2" xr:uid="{DE5E7225-A450-4307-8B98-08D51B835C56}"/>
+  <autoFilter ref="A2:L365" xr:uid="{DE5E7225-A450-4307-8B98-08D51B835C56}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1.802896078"/>
+        <filter val="2.2288774"/>
+        <filter val="3.45534565"/>
+        <filter val="5.32289966"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -54215,8 +54255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4D782E-E232-4EF2-AB1D-EEBD3E6001E5}">
   <dimension ref="A2:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:P21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="A38:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54240,19 +54280,19 @@
       <c r="K3" s="27" t="s">
         <v>1989</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="57" t="s">
         <v>1971</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="57" t="s">
         <v>1972</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="57" t="s">
         <v>1788</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="57" t="s">
         <v>1973</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="57" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -54260,19 +54300,19 @@
       <c r="A4" s="27" t="s">
         <v>1989</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>1971</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>1972</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>1788</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="57" t="s">
         <v>1973</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>1790</v>
       </c>
       <c r="K4" s="27" t="s">
@@ -54626,19 +54666,19 @@
       <c r="A19" s="27" t="s">
         <v>1989</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="57" t="s">
         <v>1971</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="57" t="s">
         <v>1972</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="57" t="s">
         <v>1788</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="57" t="s">
         <v>1973</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="57" t="s">
         <v>1790</v>
       </c>
       <c r="K19" s="27" t="s">
@@ -54860,23 +54900,97 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>127</v>
+      </c>
       <c r="P38" t="s">
         <v>1720</v>
       </c>
     </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="27"/>
+    </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
+      <c r="A41" s="27" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
+      <c r="A42" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
       <c r="P42" t="s">
         <v>1720</v>
       </c>
@@ -54909,9 +55023,6 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P51" s="59"/>
-    </row>
     <row r="52" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P52" t="s">
         <v>1720</v>
@@ -55785,6 +55896,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B20:E22 E10">
     <cfRule type="colorScale" priority="58">
       <colorScale>
